--- a/competition/dacon/imsi/data_info.xlsx
+++ b/competition/dacon/imsi/data_info.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="cols" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="100">
   <si>
     <t>변수 설명</t>
   </si>
@@ -341,6 +341,43 @@
   </si>
   <si>
     <t>start_latitude</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>local train_test_split 기준 변경</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>20221024-2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>좁은 구간만 존재하는 특정 도로 onehot</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>20221024-3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>특정 도로 mean 값 적용</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">3.62 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&gt; 3.66</t>
+    </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -351,7 +388,7 @@
   <numFmts count="1">
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -405,6 +442,21 @@
       <color rgb="FFFF0000"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="10">
@@ -493,7 +545,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -547,6 +599,8 @@
     <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="쉼표 [0]" xfId="1" builtinId="6"/>
@@ -854,9 +908,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O8" sqref="O8"/>
+      <selection pane="bottomLeft" activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1823,25 +1877,26 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.125" customWidth="1"/>
+    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C1" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>78</v>
       </c>
@@ -1858,7 +1913,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>87</v>
       </c>
@@ -1872,15 +1927,52 @@
         <v>85</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>88</v>
       </c>
-      <c r="C4">
-        <v>3.6</v>
+      <c r="B4">
+        <v>3.74</v>
+      </c>
+      <c r="C4" t="s">
+        <v>99</v>
       </c>
       <c r="D4" t="s">
         <v>89</v>
+      </c>
+      <c r="E4" t="s">
+        <v>79</v>
+      </c>
+      <c r="F4" s="26" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>95</v>
+      </c>
+      <c r="B5">
+        <v>3.85</v>
+      </c>
+      <c r="C5">
+        <v>3.64</v>
+      </c>
+      <c r="D5" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>97</v>
+      </c>
+      <c r="B6">
+        <v>3.84</v>
+      </c>
+      <c r="C6">
+        <v>3.65</v>
+      </c>
+      <c r="D6" s="25" t="s">
+        <v>98</v>
       </c>
     </row>
   </sheetData>

--- a/competition/dacon/imsi/data_info.xlsx
+++ b/competition/dacon/imsi/data_info.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="114">
   <si>
     <t>변수 설명</t>
   </si>
@@ -77,207 +77,197 @@
     <t>end_turn_restricted</t>
   </si>
   <si>
+    <t>vehicle_restricted</t>
+  </si>
+  <si>
+    <t>target</t>
+  </si>
+  <si>
+    <t>아이디</t>
+  </si>
+  <si>
+    <t>날짜</t>
+  </si>
+  <si>
+    <t>요일</t>
+  </si>
+  <si>
+    <t>시간대</t>
+  </si>
+  <si>
+    <t>차로수</t>
+  </si>
+  <si>
+    <t>도로등급</t>
+  </si>
+  <si>
+    <t>중용구간 여부</t>
+  </si>
+  <si>
+    <t>연결로 코드</t>
+  </si>
+  <si>
+    <t>최고속도제한</t>
+  </si>
+  <si>
+    <t>통과제한하중</t>
+  </si>
+  <si>
+    <t>통과제한높이</t>
+  </si>
+  <si>
+    <t>도로유형</t>
+  </si>
+  <si>
+    <t>시작지점의 위도</t>
+  </si>
+  <si>
+    <t>시작지점의 경도</t>
+  </si>
+  <si>
+    <t>시작 지점의 회전제한 유무</t>
+  </si>
+  <si>
+    <t>도착지점의 위도</t>
+  </si>
+  <si>
+    <t>도착지점의 경도</t>
+  </si>
+  <si>
+    <t>도작지점의 회전제한 유무</t>
+  </si>
+  <si>
+    <t>시작지점명</t>
+  </si>
+  <si>
+    <t>도착지점명</t>
+  </si>
+  <si>
+    <t>통과제한차량</t>
+  </si>
+  <si>
+    <t>평균속도(km)</t>
+  </si>
+  <si>
+    <t>train</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>test</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>object</t>
+  </si>
+  <si>
+    <t>int64</t>
+  </si>
+  <si>
+    <t>float64</t>
+  </si>
+  <si>
+    <t>2022년 8월 이전 데이터만 존재 (단, 날짜가 모두 연속적이지 않음)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022년 8월 데이터만 존재 (단, 날짜가 모두 연속적이지 않음)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>변수명</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>타입</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>idx</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>unique</t>
+  </si>
+  <si>
+    <t>top</t>
+  </si>
+  <si>
+    <t>freq</t>
+  </si>
+  <si>
+    <t>mean</t>
+  </si>
+  <si>
+    <t>std</t>
+  </si>
+  <si>
+    <t>min</t>
+  </si>
+  <si>
+    <t>max</t>
+  </si>
+  <si>
+    <t>금</t>
+  </si>
+  <si>
+    <t>일반국도12호선</t>
+  </si>
+  <si>
+    <t>고성교차로</t>
+  </si>
+  <si>
+    <t>없음</t>
+  </si>
+  <si>
+    <t>connect_code</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>weight_restricted</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>height_restricted</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>road_type</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>start_latitude</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>start_longitude</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>start_turn_restricted</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>end_turn_restricted</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>road_name</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>start_node_name</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>end_node_name</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>vehicle_restricted</t>
-  </si>
-  <si>
-    <t>target</t>
-  </si>
-  <si>
-    <t>아이디</t>
-  </si>
-  <si>
-    <t>날짜</t>
-  </si>
-  <si>
-    <t>요일</t>
-  </si>
-  <si>
-    <t>시간대</t>
-  </si>
-  <si>
-    <t>차로수</t>
-  </si>
-  <si>
-    <t>도로등급</t>
-  </si>
-  <si>
-    <t>중용구간 여부</t>
-  </si>
-  <si>
-    <t>연결로 코드</t>
-  </si>
-  <si>
-    <t>최고속도제한</t>
-  </si>
-  <si>
-    <t>통과제한하중</t>
-  </si>
-  <si>
-    <t>통과제한높이</t>
-  </si>
-  <si>
-    <t>도로유형</t>
-  </si>
-  <si>
-    <t>시작지점의 위도</t>
-  </si>
-  <si>
-    <t>시작지점의 경도</t>
-  </si>
-  <si>
-    <t>시작 지점의 회전제한 유무</t>
-  </si>
-  <si>
-    <t>도착지점의 위도</t>
-  </si>
-  <si>
-    <t>도착지점의 경도</t>
-  </si>
-  <si>
-    <t>도작지점의 회전제한 유무</t>
-  </si>
-  <si>
-    <t>시작지점명</t>
-  </si>
-  <si>
-    <t>도착지점명</t>
-  </si>
-  <si>
-    <t>통과제한차량</t>
-  </si>
-  <si>
-    <t>평균속도(km)</t>
-  </si>
-  <si>
-    <t>train</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>test</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>object</t>
-  </si>
-  <si>
-    <t>int64</t>
-  </si>
-  <si>
-    <t>float64</t>
-  </si>
-  <si>
-    <t>2022년 8월 이전 데이터만 존재 (단, 날짜가 모두 연속적이지 않음)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>2022년 8월 데이터만 존재 (단, 날짜가 모두 연속적이지 않음)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>변수명</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>타입</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>idx</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>unique</t>
-  </si>
-  <si>
-    <t>top</t>
-  </si>
-  <si>
-    <t>freq</t>
-  </si>
-  <si>
-    <t>mean</t>
-  </si>
-  <si>
-    <t>std</t>
-  </si>
-  <si>
-    <t>min</t>
-  </si>
-  <si>
-    <t>max</t>
-  </si>
-  <si>
-    <t>금</t>
-  </si>
-  <si>
-    <t>일반국도12호선</t>
-  </si>
-  <si>
-    <t>고성교차로</t>
-  </si>
-  <si>
-    <t>없음</t>
-  </si>
-  <si>
-    <t>connect_code</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>weight_restricted</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>height_restricted</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>road_type</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>start_latitude</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>start_longitude</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>start_turn_restricted</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>end_turn_restricted</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>road_name</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>start_node_name</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>end_node_name</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>vehicle_restricted</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>도로명</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>road_name</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -378,6 +368,72 @@
       </rPr>
       <t>&gt; 3.66</t>
     </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>lane_count</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>20221025-1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>날짜,시간,위도,경도 같을 때 차량수 추가</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>start_node_name</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>end_node_name</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>20221025-2</t>
+  </si>
+  <si>
+    <t>20221025-3</t>
+  </si>
+  <si>
+    <t>날짜,시간,시작, 도착명 같을 때 차량수 추가</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>road_name one_hot</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>20221026-1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>20221026-2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>20221026-3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>강우량 추가</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>weather</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>온도 추가</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>강우량 + 온도</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>weather 좌표 나눠서 매핑</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -910,7 +966,7 @@
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G8" sqref="G8"/>
+      <selection pane="bottomLeft" activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -927,35 +983,35 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E1"/>
       <c r="F1" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="H1" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="I1" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="J1" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="K1" s="8" t="s">
         <v>56</v>
-      </c>
-      <c r="J1" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="K1" s="8" t="s">
-        <v>58</v>
       </c>
       <c r="L1" s="9">
         <v>0.25</v>
@@ -967,7 +1023,7 @@
         <v>0.75</v>
       </c>
       <c r="O1" s="8" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
@@ -978,10 +1034,10 @@
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E2" s="10" t="s">
         <v>1</v>
@@ -1005,10 +1061,10 @@
         <v>2</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E3" s="24" t="s">
         <v>2</v>
@@ -1046,10 +1102,10 @@
         <v>3</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E4" s="10" t="s">
         <v>3</v>
@@ -1058,7 +1114,7 @@
         <v>7</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H4" s="11">
         <v>684024</v>
@@ -1076,13 +1132,13 @@
         <v>3</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E5" s="8" t="s">
         <v>4</v>
@@ -1117,13 +1173,13 @@
         <v>4</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>5</v>
+        <v>97</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E6" s="10" t="s">
         <v>5</v>
@@ -1161,10 +1217,10 @@
         <v>6</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E7" s="8" t="s">
         <v>6</v>
@@ -1202,10 +1258,10 @@
         <v>7</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E8" s="8" t="s">
         <v>7</v>
@@ -1240,13 +1296,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D9" s="14" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E9" s="15" t="s">
         <v>8</v>
@@ -1281,13 +1337,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E10" s="24" t="s">
         <v>9</v>
@@ -1322,16 +1378,16 @@
         <v>11</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F11" s="13"/>
       <c r="G11" s="13"/>
@@ -1366,13 +1422,13 @@
         <v>10</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D12" s="14" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E12" s="15" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F12" s="16"/>
       <c r="G12" s="16"/>
@@ -1404,13 +1460,13 @@
         <v>13</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E13" s="8" t="s">
         <v>11</v>
@@ -1445,16 +1501,16 @@
         <v>15</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F14" s="13"/>
       <c r="G14" s="13"/>
@@ -1489,13 +1545,13 @@
         <v>12</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F15" s="11"/>
       <c r="G15" s="11"/>
@@ -1527,13 +1583,13 @@
         <v>17</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E16" s="8" t="s">
         <v>13</v>
@@ -1542,7 +1598,7 @@
         <v>2</v>
       </c>
       <c r="G16" s="22" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H16" s="13">
         <v>4239701</v>
@@ -1563,10 +1619,10 @@
         <v>14</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E17" s="8" t="s">
         <v>14</v>
@@ -1604,10 +1660,10 @@
         <v>15</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E18" s="10" t="s">
         <v>15</v>
@@ -1642,13 +1698,13 @@
         <v>21</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E19" s="8" t="s">
         <v>16</v>
@@ -1657,7 +1713,7 @@
         <v>2</v>
       </c>
       <c r="G19" s="22" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H19" s="13">
         <v>4239599</v>
@@ -1675,22 +1731,22 @@
         <v>6</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E20" s="10" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F20" s="23">
         <v>61</v>
       </c>
       <c r="G20" s="11" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H20" s="11">
         <v>1046092</v>
@@ -1708,22 +1764,22 @@
         <v>14</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>17</v>
+        <v>100</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E21" s="10" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F21" s="23">
         <v>487</v>
       </c>
       <c r="G21" s="11" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H21" s="11">
         <v>42169</v>
@@ -1741,22 +1797,22 @@
         <v>18</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>18</v>
+        <v>101</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E22" s="10" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F22" s="23">
         <v>487</v>
       </c>
       <c r="G22" s="11" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H22" s="11">
         <v>42265</v>
@@ -1774,16 +1830,16 @@
         <v>10</v>
       </c>
       <c r="B23" s="14" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C23" s="14" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D23" s="14" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E23" s="15" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F23" s="16"/>
       <c r="G23" s="16"/>
@@ -1815,16 +1871,16 @@
         <v>22</v>
       </c>
       <c r="B24" s="18" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C24" s="18" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D24" s="18" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E24" s="19" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F24" s="20"/>
       <c r="G24" s="20"/>
@@ -1853,18 +1909,18 @@
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -1877,10 +1933,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1893,12 +1949,12 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B2">
         <v>15.12</v>
@@ -1907,15 +1963,15 @@
         <v>4.6989999999999998</v>
       </c>
       <c r="D2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="E2" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B3">
         <v>15.18</v>
@@ -1924,32 +1980,32 @@
         <v>4.4640000000000004</v>
       </c>
       <c r="E3" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B4">
         <v>3.74</v>
       </c>
       <c r="C4" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D4" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="E4" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="F4" s="26" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B5">
         <v>3.85</v>
@@ -1958,12 +2014,12 @@
         <v>3.64</v>
       </c>
       <c r="D5" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B6">
         <v>3.84</v>
@@ -1972,7 +2028,96 @@
         <v>3.65</v>
       </c>
       <c r="D6" s="25" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>98</v>
+      </c>
+      <c r="B7">
+        <v>15.51</v>
+      </c>
+      <c r="C7">
+        <v>4.51</v>
+      </c>
+      <c r="D7" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>102</v>
+      </c>
+      <c r="B8">
+        <v>15.72</v>
+      </c>
+      <c r="C8">
+        <v>3.63</v>
+      </c>
+      <c r="D8" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>103</v>
+      </c>
+      <c r="B9">
+        <v>3.8010000000000002</v>
+      </c>
+      <c r="C9">
+        <v>3.62</v>
+      </c>
+      <c r="D9" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>106</v>
+      </c>
+      <c r="C10">
+        <v>3.63</v>
+      </c>
+      <c r="D10" t="s">
+        <v>109</v>
+      </c>
+      <c r="E10" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>107</v>
+      </c>
+      <c r="C11">
+        <v>3.64</v>
+      </c>
+      <c r="D11" t="s">
+        <v>111</v>
+      </c>
+      <c r="E11" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>108</v>
+      </c>
+      <c r="C12">
+        <v>3.64</v>
+      </c>
+      <c r="D12" t="s">
+        <v>112</v>
+      </c>
+      <c r="E12" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D14" t="s">
+        <v>113</v>
       </c>
     </row>
   </sheetData>
@@ -1996,24 +2141,24 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B1" s="1">
         <v>4701217</v>
       </c>
       <c r="C1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B2" s="1">
         <v>291241</v>
       </c>
       <c r="C2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>

--- a/competition/dacon/imsi/data_info.xlsx
+++ b/competition/dacon/imsi/data_info.xlsx
@@ -19,12 +19,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">cols!$A$1:$D$24</definedName>
   </definedNames>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="137">
   <si>
     <t>변수 설명</t>
   </si>
@@ -413,10 +413,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>20221026-3</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>강우량 추가</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -429,11 +425,104 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>강우량 + 온도</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>weather 좌표 나눠서 매핑</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>20221027-1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>20221025-1 종료 노드만</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>시작/종료 경도만으로 해봄</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>20221027-2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>학습기간 변경</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>6월부터 4.37</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>날짜 컬럼</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">날짜별 시간별 mean? </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>6월로 7어ㅜㄹ</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">예측결과 분석 </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>pycaret</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>20221028-1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>20221028-2</t>
+  </si>
+  <si>
+    <t>start_node_name 추가</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>20221028-2-1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>start_latitude','start_longitude' -1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>20221029-1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>road_name 추가</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>20221029-2</t>
+  </si>
+  <si>
+    <t>20221029-3</t>
+  </si>
+  <si>
+    <t>6월도 포함 시 안 돌아감</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>강우량 추가</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>pycaret 자체 세팅 사용 - 느림</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>20221090-1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>하나씩 shift 하면서 학습</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -601,7 +690,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -657,6 +746,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="쉼표 [0]" xfId="1" builtinId="6"/>
@@ -673,6 +763,49 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>332562</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>161198</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="그림 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8629650" y="0"/>
+          <a:ext cx="6504762" cy="5819048"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1933,18 +2066,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:F30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.125" customWidth="1"/>
     <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="37.875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -2077,52 +2211,203 @@
       <c r="A10" t="s">
         <v>106</v>
       </c>
+      <c r="B10">
+        <v>15.67</v>
+      </c>
       <c r="C10">
         <v>3.63</v>
       </c>
       <c r="D10" t="s">
+        <v>108</v>
+      </c>
+      <c r="E10" t="s">
         <v>109</v>
-      </c>
-      <c r="E10" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>107</v>
       </c>
+      <c r="B11">
+        <v>15.63</v>
+      </c>
       <c r="C11">
         <v>3.64</v>
       </c>
       <c r="D11" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>108</v>
+        <v>112</v>
+      </c>
+      <c r="B12">
+        <v>15.68</v>
       </c>
       <c r="C12">
         <v>3.64</v>
       </c>
       <c r="D12" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E12" t="s">
-        <v>110</v>
+        <v>114</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>115</v>
+      </c>
+      <c r="B13">
+        <v>3.82</v>
+      </c>
+      <c r="C13">
+        <v>3.61</v>
+      </c>
+      <c r="D13" t="s">
+        <v>116</v>
+      </c>
+      <c r="E13" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>123</v>
+      </c>
+      <c r="B14" s="27">
+        <v>3.5012694412999998</v>
+      </c>
+      <c r="C14">
+        <v>2.9544999999999999</v>
+      </c>
       <c r="D14" t="s">
-        <v>113</v>
+        <v>122</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>124</v>
+      </c>
+      <c r="B15">
+        <v>16.02</v>
+      </c>
+      <c r="C15">
+        <v>2.9527999999999999</v>
+      </c>
+      <c r="D15" s="25" t="s">
+        <v>127</v>
+      </c>
+      <c r="E15" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>126</v>
+      </c>
+      <c r="B16">
+        <v>16.010000000000002</v>
+      </c>
+      <c r="C16">
+        <v>2.8580000000000001</v>
+      </c>
+      <c r="D16" t="s">
+        <v>125</v>
+      </c>
+      <c r="E16" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>128</v>
+      </c>
+      <c r="B17">
+        <v>15.98</v>
+      </c>
+      <c r="C17">
+        <v>2.9449000000000001</v>
+      </c>
+      <c r="D17" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>130</v>
+      </c>
+      <c r="B18">
+        <v>15.99</v>
+      </c>
+      <c r="C18">
+        <v>2.863</v>
+      </c>
+      <c r="D18" t="s">
+        <v>133</v>
+      </c>
+      <c r="E18" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>131</v>
+      </c>
+      <c r="B19">
+        <v>3.5014118486000001</v>
+      </c>
+      <c r="C19">
+        <v>3.0693000000000001</v>
+      </c>
+      <c r="D19" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>135</v>
+      </c>
+      <c r="C20">
+        <v>2.8570000000000002</v>
+      </c>
+      <c r="D20" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D23" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D24" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D26" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D29" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D30" t="s">
+        <v>121</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
